--- a/spec/fixtures/mock-data/Spots.xlsx
+++ b/spec/fixtures/mock-data/Spots.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alex/src/osumb/challenges/models/mock-data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alex/src/osumb/challenges/spec/fixtures/mock-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="231">
   <si>
     <t>Spot</t>
   </si>
@@ -708,6 +708,15 @@
   </si>
   <si>
     <t>Challenged Amount</t>
+  </si>
+  <si>
+    <t>J16</t>
+  </si>
+  <si>
+    <t>J17</t>
+  </si>
+  <si>
+    <t>J18</t>
   </si>
 </sst>
 </file>
@@ -1067,10 +1076,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C226"/>
+  <dimension ref="A1:C229"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView tabSelected="1" topLeftCell="A213" workbookViewId="0">
+      <selection activeCell="A230" sqref="A230:G296"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1306,7 +1315,7 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -1416,7 +1425,7 @@
         <v>0</v>
       </c>
       <c r="C31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -1622,10 +1631,10 @@
         <v>49</v>
       </c>
       <c r="B50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
@@ -1724,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="C59">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
@@ -2128,10 +2137,10 @@
         <v>95</v>
       </c>
       <c r="B96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
@@ -2334,7 +2343,7 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
-        <v>114</v>
+        <v>228</v>
       </c>
       <c r="B115" t="b">
         <v>0</v>
@@ -2345,7 +2354,7 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="s">
-        <v>115</v>
+        <v>229</v>
       </c>
       <c r="B116" t="b">
         <v>0</v>
@@ -2356,7 +2365,7 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117" s="3" t="s">
-        <v>116</v>
+        <v>230</v>
       </c>
       <c r="B117" t="b">
         <v>0</v>
@@ -2367,7 +2376,7 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B118" t="b">
         <v>0</v>
@@ -2378,7 +2387,7 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B119" t="b">
         <v>0</v>
@@ -2389,7 +2398,7 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B120" t="b">
         <v>0</v>
@@ -2400,7 +2409,7 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B121" t="b">
         <v>0</v>
@@ -2411,7 +2420,7 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B122" t="b">
         <v>0</v>
@@ -2422,29 +2431,29 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B123" t="b">
         <v>0</v>
       </c>
       <c r="C123">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B124" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B125" t="b">
         <v>0</v>
@@ -2455,7 +2464,7 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B126" t="b">
         <v>0</v>
@@ -2466,7 +2475,7 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B127" t="b">
         <v>0</v>
@@ -2476,8 +2485,8 @@
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A128" s="4" t="s">
-        <v>127</v>
+      <c r="A128" s="3" t="s">
+        <v>124</v>
       </c>
       <c r="B128" t="b">
         <v>0</v>
@@ -2488,7 +2497,7 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B129" t="b">
         <v>0</v>
@@ -2499,7 +2508,7 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B130" t="b">
         <v>0</v>
@@ -2509,8 +2518,8 @@
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A131" s="3" t="s">
-        <v>130</v>
+      <c r="A131" s="4" t="s">
+        <v>127</v>
       </c>
       <c r="B131" t="b">
         <v>0</v>
@@ -2521,7 +2530,7 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B132" t="b">
         <v>0</v>
@@ -2532,7 +2541,7 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" s="3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B133" t="b">
         <v>0</v>
@@ -2543,7 +2552,7 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B134" t="b">
         <v>0</v>
@@ -2554,7 +2563,7 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B135" t="b">
         <v>0</v>
@@ -2565,7 +2574,7 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="3" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B136" t="b">
         <v>0</v>
@@ -2576,10 +2585,10 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B137" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C137">
         <v>0</v>
@@ -2587,7 +2596,7 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" s="3" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B138" t="b">
         <v>0</v>
@@ -2598,7 +2607,7 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" s="3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B139" t="b">
         <v>0</v>
@@ -2609,7 +2618,7 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140" s="3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B140" t="b">
         <v>0</v>
@@ -2620,7 +2629,7 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141" s="3" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B141" t="b">
         <v>0</v>
@@ -2631,7 +2640,7 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142" s="3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B142" t="b">
         <v>0</v>
@@ -2642,7 +2651,7 @@
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B143" t="b">
         <v>0</v>
@@ -2653,7 +2662,7 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B144" t="b">
         <v>0</v>
@@ -2664,18 +2673,18 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145" s="3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B145" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C145">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146" s="3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B146" t="b">
         <v>0</v>
@@ -2686,7 +2695,7 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147" s="3" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B147" t="b">
         <v>0</v>
@@ -2697,7 +2706,7 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B148" t="b">
         <v>0</v>
@@ -2708,7 +2717,7 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149" s="3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B149" t="b">
         <v>0</v>
@@ -2719,7 +2728,7 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150" s="3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B150" t="b">
         <v>0</v>
@@ -2730,10 +2739,10 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151" s="3" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B151" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C151">
         <v>0</v>
@@ -2741,7 +2750,7 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152" s="3" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B152" t="b">
         <v>0</v>
@@ -2752,7 +2761,7 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B153" t="b">
         <v>0</v>
@@ -2763,7 +2772,7 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B154" t="b">
         <v>0</v>
@@ -2774,7 +2783,7 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B155" t="b">
         <v>0</v>
@@ -2784,8 +2793,8 @@
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A156" s="4" t="s">
-        <v>155</v>
+      <c r="A156" s="3" t="s">
+        <v>152</v>
       </c>
       <c r="B156" t="b">
         <v>0</v>
@@ -2796,7 +2805,7 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B157" t="b">
         <v>0</v>
@@ -2807,7 +2816,7 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B158" t="b">
         <v>0</v>
@@ -2817,8 +2826,8 @@
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A159" s="3" t="s">
-        <v>158</v>
+      <c r="A159" s="4" t="s">
+        <v>155</v>
       </c>
       <c r="B159" t="b">
         <v>0</v>
@@ -2829,7 +2838,7 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160" s="3" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B160" t="b">
         <v>0</v>
@@ -2840,7 +2849,7 @@
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161" s="3" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B161" t="b">
         <v>0</v>
@@ -2851,7 +2860,7 @@
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A162" s="3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B162" t="b">
         <v>0</v>
@@ -2862,7 +2871,7 @@
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A163" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B163" t="b">
         <v>0</v>
@@ -2873,7 +2882,7 @@
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A164" s="3" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B164" t="b">
         <v>0</v>
@@ -2884,7 +2893,7 @@
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A165" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B165" t="b">
         <v>0</v>
@@ -2895,7 +2904,7 @@
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A166" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B166" t="b">
         <v>0</v>
@@ -2906,7 +2915,7 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A167" s="3" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B167" t="b">
         <v>0</v>
@@ -2917,7 +2926,7 @@
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A168" s="3" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B168" t="b">
         <v>0</v>
@@ -2928,7 +2937,7 @@
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A169" s="3" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B169" t="b">
         <v>0</v>
@@ -2938,8 +2947,8 @@
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A170" s="4" t="s">
-        <v>169</v>
+      <c r="A170" s="3" t="s">
+        <v>166</v>
       </c>
       <c r="B170" t="b">
         <v>0</v>
@@ -2950,7 +2959,7 @@
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A171" s="3" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B171" t="b">
         <v>0</v>
@@ -2961,7 +2970,7 @@
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A172" s="3" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B172" t="b">
         <v>0</v>
@@ -2971,8 +2980,8 @@
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A173" s="3" t="s">
-        <v>172</v>
+      <c r="A173" s="4" t="s">
+        <v>169</v>
       </c>
       <c r="B173" t="b">
         <v>0</v>
@@ -2983,7 +2992,7 @@
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A174" s="3" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B174" t="b">
         <v>0</v>
@@ -2994,10 +3003,10 @@
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A175" s="3" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B175" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C175">
         <v>0</v>
@@ -3005,7 +3014,7 @@
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A176" s="3" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B176" t="b">
         <v>0</v>
@@ -3016,7 +3025,7 @@
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A177" s="3" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B177" t="b">
         <v>0</v>
@@ -3027,7 +3036,7 @@
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A178" s="3" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B178" t="b">
         <v>0</v>
@@ -3038,7 +3047,7 @@
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A179" s="3" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B179" t="b">
         <v>0</v>
@@ -3049,7 +3058,7 @@
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A180" s="3" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B180" t="b">
         <v>0</v>
@@ -3060,7 +3069,7 @@
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A181" s="3" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B181" t="b">
         <v>0</v>
@@ -3071,7 +3080,7 @@
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A182" s="3" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B182" t="b">
         <v>0</v>
@@ -3082,7 +3091,7 @@
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A183" s="3" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B183" t="b">
         <v>0</v>
@@ -3092,8 +3101,8 @@
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A184" s="4" t="s">
-        <v>183</v>
+      <c r="A184" s="3" t="s">
+        <v>180</v>
       </c>
       <c r="B184" t="b">
         <v>0</v>
@@ -3104,7 +3113,7 @@
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A185" s="3" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B185" t="b">
         <v>0</v>
@@ -3115,7 +3124,7 @@
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A186" s="3" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B186" t="b">
         <v>0</v>
@@ -3125,8 +3134,8 @@
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A187" s="3" t="s">
-        <v>186</v>
+      <c r="A187" s="4" t="s">
+        <v>183</v>
       </c>
       <c r="B187" t="b">
         <v>0</v>
@@ -3137,7 +3146,7 @@
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A188" s="3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B188" t="b">
         <v>0</v>
@@ -3148,7 +3157,7 @@
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A189" s="3" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B189" t="b">
         <v>0</v>
@@ -3159,7 +3168,7 @@
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A190" s="3" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B190" t="b">
         <v>0</v>
@@ -3170,7 +3179,7 @@
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A191" s="3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B191" t="b">
         <v>0</v>
@@ -3181,7 +3190,7 @@
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A192" s="3" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B192" t="b">
         <v>0</v>
@@ -3192,7 +3201,7 @@
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A193" s="3" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B193" t="b">
         <v>0</v>
@@ -3203,7 +3212,7 @@
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A194" s="3" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B194" t="b">
         <v>0</v>
@@ -3214,7 +3223,7 @@
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A195" s="3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B195" t="b">
         <v>0</v>
@@ -3225,7 +3234,7 @@
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A196" s="3" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B196" t="b">
         <v>0</v>
@@ -3236,7 +3245,7 @@
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A197" s="3" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B197" t="b">
         <v>0</v>
@@ -3246,8 +3255,8 @@
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A198" s="4" t="s">
-        <v>197</v>
+      <c r="A198" s="3" t="s">
+        <v>194</v>
       </c>
       <c r="B198" t="b">
         <v>0</v>
@@ -3258,7 +3267,7 @@
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A199" s="3" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B199" t="b">
         <v>0</v>
@@ -3269,7 +3278,7 @@
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A200" s="3" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B200" t="b">
         <v>0</v>
@@ -3279,8 +3288,8 @@
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A201" s="3" t="s">
-        <v>200</v>
+      <c r="A201" s="4" t="s">
+        <v>197</v>
       </c>
       <c r="B201" t="b">
         <v>0</v>
@@ -3291,7 +3300,7 @@
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A202" s="3" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B202" t="b">
         <v>0</v>
@@ -3302,7 +3311,7 @@
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A203" s="3" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B203" t="b">
         <v>0</v>
@@ -3313,7 +3322,7 @@
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A204" s="3" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B204" t="b">
         <v>0</v>
@@ -3324,7 +3333,7 @@
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A205" s="3" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B205" t="b">
         <v>0</v>
@@ -3335,7 +3344,7 @@
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A206" s="3" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B206" t="b">
         <v>0</v>
@@ -3346,7 +3355,7 @@
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A207" s="3" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B207" t="b">
         <v>0</v>
@@ -3357,7 +3366,7 @@
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A208" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B208" t="b">
         <v>0</v>
@@ -3368,7 +3377,7 @@
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A209" s="3" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B209" t="b">
         <v>0</v>
@@ -3379,7 +3388,7 @@
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A210" s="3" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B210" t="b">
         <v>0</v>
@@ -3390,7 +3399,7 @@
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A211" s="3" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B211" t="b">
         <v>0</v>
@@ -3400,8 +3409,8 @@
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A212" s="4" t="s">
-        <v>211</v>
+      <c r="A212" s="3" t="s">
+        <v>208</v>
       </c>
       <c r="B212" t="b">
         <v>0</v>
@@ -3412,7 +3421,7 @@
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A213" s="3" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B213" t="b">
         <v>0</v>
@@ -3423,7 +3432,7 @@
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A214" s="3" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B214" t="b">
         <v>0</v>
@@ -3433,8 +3442,8 @@
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A215" s="3" t="s">
-        <v>214</v>
+      <c r="A215" s="4" t="s">
+        <v>211</v>
       </c>
       <c r="B215" t="b">
         <v>0</v>
@@ -3445,7 +3454,7 @@
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A216" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B216" t="b">
         <v>0</v>
@@ -3456,7 +3465,7 @@
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A217" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B217" t="b">
         <v>0</v>
@@ -3467,7 +3476,7 @@
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A218" s="3" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B218" t="b">
         <v>0</v>
@@ -3478,7 +3487,7 @@
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A219" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B219" t="b">
         <v>0</v>
@@ -3489,7 +3498,7 @@
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A220" s="3" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B220" t="b">
         <v>0</v>
@@ -3500,7 +3509,7 @@
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A221" s="3" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B221" t="b">
         <v>0</v>
@@ -3511,7 +3520,7 @@
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A222" s="3" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B222" t="b">
         <v>0</v>
@@ -3522,7 +3531,7 @@
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A223" s="3" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B223" t="b">
         <v>0</v>
@@ -3533,7 +3542,7 @@
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A224" s="3" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B224" t="b">
         <v>0</v>
@@ -3544,23 +3553,56 @@
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A225" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="B225" t="b">
+        <v>0</v>
+      </c>
+      <c r="C225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A226" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="B226" t="b">
+        <v>0</v>
+      </c>
+      <c r="C226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A227" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="B227" t="b">
+        <v>0</v>
+      </c>
+      <c r="C227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A228" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="B225" t="b">
-        <v>0</v>
-      </c>
-      <c r="C225">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A226" s="4" t="s">
+      <c r="B228" t="b">
+        <v>0</v>
+      </c>
+      <c r="C228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A229" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="B226" t="b">
-        <v>0</v>
-      </c>
-      <c r="C226">
+      <c r="B229" t="b">
+        <v>0</v>
+      </c>
+      <c r="C229">
         <v>0</v>
       </c>
     </row>
